--- a/02_MasterWifoMannheim/99_Backup/Course110.xlsx
+++ b/02_MasterWifoMannheim/99_Backup/Course110.xlsx
@@ -1,136 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mailunimannheimde-my.sharepoint.com/personal/pstapf_mail_uni-mannheim_de/Documents/Uni/Master/Masterarbeit/Course_Suggestion/02_MasterWifoMannheim/03_Courses/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="11_2B59D2BFD32051265F592811593998B2716FF858" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DD436255-2DD8-4ACC-B66F-E521E80DBB6C}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
-  <si>
-    <t>Module</t>
-  </si>
-  <si>
-    <t>MAN 636 International Entrepreneurship and Managing Change</t>
-  </si>
-  <si>
-    <t>Contents</t>
-  </si>
-  <si>
-    <t>The course focuses on the knowledge and skills necessary for developing a new global business. `High tech’ and `low cost’, or frugal innovative start-ups are compared and contrasted taking business cycles, cultural contexts and levels of development into account. Models of managing international change are the basis.</t>
-  </si>
-  <si>
-    <t>Learning outcomes</t>
-  </si>
-  <si>
-    <t>Internalizing the factors which make for success in starting a business with an international market focus. Team-building to create new international business designs which confront either resource scarcity or high tech design challenges. Working with national competitiveness and considering which government policies and global business cycles are most conducive to helping entrepreneurs set up new ventures. Learning models of adapting to globalization project both from the developing to the developed countries as well as from the rich to the poor.</t>
-  </si>
-  <si>
-    <t>Prerequisites</t>
-  </si>
-  <si>
-    <t>Obligatory registration</t>
-  </si>
-  <si>
-    <t>Further Information on the registration:“Student Portal”, http://www.mcei.de/teaching (more information about the registration process is available here)</t>
-  </si>
-  <si>
-    <t>Courses Hours per week Self-study Seminar 2 10</t>
-  </si>
-  <si>
-    <t>ECTS</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>Form of assessment</t>
-  </si>
-  <si>
-    <t>Written exam and oral report (teamwork)</t>
-  </si>
-  <si>
-    <t>Preliminary course work -</t>
-  </si>
-  <si>
-    <t>Lecturer/Person in charge</t>
-  </si>
-  <si>
-    <t>Prof. Robert A. Isaak, PhD</t>
-  </si>
-  <si>
-    <t>Duration of module</t>
-  </si>
-  <si>
-    <t>1 semester</t>
-  </si>
-  <si>
-    <t>Offering</t>
-  </si>
-  <si>
-    <t>Spring semester</t>
-  </si>
-  <si>
-    <t>Language</t>
-  </si>
-  <si>
-    <t>English</t>
-  </si>
-  <si>
-    <t>Program-specific educational goals</t>
-  </si>
-  <si>
-    <t>Grade</t>
-  </si>
-  <si>
-    <t>graded</t>
-  </si>
-  <si>
-    <t>Range of application</t>
-  </si>
-  <si>
-    <t>M.Sc. MMM, M.Sc. MMBR, M.Sc. Bus. Edu., M.Sc. Bus. Inf., LL.M., M.Sc. Econ., M.A. K&amp;W</t>
-  </si>
-  <si>
-    <t>Management (MAN), Economics (ECO), and Insurance (FIN)</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -145,43 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -469,140 +420,205 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1">
+    <row r="1">
+      <c r="A1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B1" s="1">
+      <c r="B1" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>26</v>
-      </c>
-      <c r="B17" t="s">
-        <v>27</v>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Module</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>MAN 636 International Entrepreneurship and Managing Change</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Contents</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>The course focuses on the knowledge and skills necessary for developing a new global business. `High tech’ and `low cost’, or frugal innovative start-ups are compared and contrasted taking business cycles, cultural contexts and levels of development into account. Models of managing international change are the basis.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Learning outcomes</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Internalizing the factors which make for success in starting a business with an international market focus. Team-building to create new international business designs which confront either resource scarcity or high tech design challenges. Working with national competitiveness and considering which government policies and global business cycles are most conducive to helping entrepreneurs set up new ventures. Learning models of adapting to globalization project both from the developing to the developed countries as well as from the rich to the poor.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Prerequisites</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Management (MAN), Economics (ECO), and Insurance (FIN)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Obligatory registration</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Further Information on the registration:“Student Portal”, http://www.mcei.de/teaching (more information about the registration process is available here)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Courses Hours per week Self-study Seminar 2 10</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>ECTS</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Form of assessment</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Written exam and oral report (teamwork)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Preliminary course work -</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Lecturer/Person in charge</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Prof. Robert A. Isaak, PhD</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Duration of module</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>1 semester</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Offering</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>SSS</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Language</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Program-specific educational goals</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Grade</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>graded</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Range of application</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>M.Sc. MMM, M.Sc. MMBR, M.Sc. Bus. Edu., M.Sc. Bus. Inf., LL.M., M.Sc. Econ., M.A. K&amp;W</t>
+        </is>
       </c>
     </row>
   </sheetData>
